--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.959247250829587</v>
+        <v>2.173583111142386</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>2.187906433249951</v>
+        <v>1.953610766464056</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1.953213036957726</v>
+        <v>1.918298195058024</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2.026130632456591</v>
+        <v>2.195635637814436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2.297252780636199</v>
+        <v>2.296709150532998</v>
       </c>
     </row>
   </sheetData>
